--- a/DOC/schedule.xlsx
+++ b/DOC/schedule.xlsx
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/DOC/schedule.xlsx
+++ b/DOC/schedule.xlsx
@@ -15,10 +15,277 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tianke</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">struct glomo_coordinates_str {
+    double x;
+    double y;
+    double z;
+};
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当收到</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rrep</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包时，接收端计算发送端到接收端的距离，并根据距离做计算得出</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ETX
+ distance= sqrt(SQUARE(rxNode-&gt;position.x - propInfo-&gt;txPosition.x) +SQUARE(rxNode-&gt;position.y - propInfo-&gt;txPosition.y))
+ETX = distance * ETX_CONEFFICENT</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>set two tables</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add neighbor’ ETX to Hello packets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>store ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into the table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">select candidate </t>
+    </r>
+  </si>
+  <si>
+    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forwarding</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>add ETX to RREP</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>a)</t>
     </r>
     <r>
@@ -39,10 +306,26 @@
       </rPr>
       <t>get ETX from location</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
     </r>
     <r>
       <rPr>
@@ -51,20 +334,75 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>set two tables</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Two-hop ETX values table (TEVT)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>one-hop neighbors’ delivery rate table (NDRT)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>a)</t>
     </r>
     <r>
@@ -79,25 +417,41 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Two-hop ETX values table (TEVT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i.</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>when a packet arrives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, select candidate for NDRT to add them into candidate set (CS)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
     </r>
     <r>
       <rPr>
@@ -106,20 +460,75 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Add neighbor’ ETX to Hello packets</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sort candidates in CS</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delay</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>b)</t>
     </r>
     <r>
@@ -138,308 +547,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>one-hop neighbors’ delivery rate table (NDRT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>store ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> into the table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">select candidate </t>
-    </r>
-  </si>
-  <si>
-    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
-  </si>
-  <si>
-    <r>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>sort candidates in CS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forwarding</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delay</t>
-    </r>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>add ETX to RREP</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>列3</t>
-  </si>
-  <si>
-    <t>列4</t>
-  </si>
-  <si>
-    <t>列5</t>
-  </si>
-  <si>
-    <t>列6</t>
-  </si>
-  <si>
-    <r>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> add ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>j-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , get ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (one-hop neighbors’ delivery rate table)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>when a packet arrives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, select candidate for NDRT to add them into candidate set (CS)</t>
+      <t xml:space="preserve">Decided to forwarding or discarding </t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -449,7 +557,7 @@
   </si>
   <si>
     <r>
-      <t>b)</t>
+      <t xml:space="preserve">     b)</t>
     </r>
     <r>
       <rPr>
@@ -458,17 +566,120 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Decided to forwarding or discarding </t>
-    </r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> add ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>j-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , get ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (one-hop neighbors’ delivery rate table)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     c)   add ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i-D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>to RREP</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,11 +736,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -541,7 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,11 +805,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,52 +821,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
@@ -682,62 +945,25 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F17" totalsRowCount="1">
-  <autoFilter ref="A1:F17"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="列1" totalsRowLabel="SUM" dataDxfId="8" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="列2" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="4">
-      <totalsRowFormula>SUM(B2:B16)</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C19" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:C18"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="2" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(B2:B18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="列3" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="3">
+    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="4">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
       <totalsRowFormula>TODAY()+8</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="列4" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="列5" totalsRowDxfId="1"/>
-    <tableColumn id="6" name="列6" totalsRowFunction="count" totalsRowDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1026,203 +1252,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="85.875" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="102.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="9">
+        <f ca="1">TODAY()</f>
+        <v>39523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="9">
         <f ca="1">TODAY()+1</f>
         <v>39524</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" ht="18.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C9" s="9">
         <f ca="1">TODAY()+2</f>
         <v>39525</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:3" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="20.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C11" s="10">
         <f ca="1">TODAY()+3</f>
         <v>39526</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:3" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C14" s="9">
         <f ca="1">TODAY()+5</f>
         <v>39528</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="15" spans="1:3" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C15" s="11">
         <f ca="1">TODAY()+6</f>
         <v>39529</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C17" s="9">
         <f ca="1">TODAY()+7</f>
         <v>39530</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="18" spans="1:3" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C18" s="11">
         <f ca="1">TODAY()+8</f>
         <v>39531</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7">
-        <f>SUM(B2:B16)</f>
+    <row r="19" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8">
+        <f>SUM(B2:B18)</f>
         <v>8</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C19" s="12">
         <f ca="1">TODAY()+8</f>
         <v>39531</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <f>SUBTOTAL(103,[列6])</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DOC/schedule.xlsx
+++ b/DOC/schedule.xlsx
@@ -220,9 +220,6 @@
     </r>
   </si>
   <si>
-    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
-  </si>
-  <si>
     <r>
       <t>4.</t>
     </r>
@@ -266,45 +263,6 @@
         <family val="2"/>
       </rPr>
       <t>add ETX to RREP</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>get ETX from location</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -680,6 +638,31 @@
   </si>
   <si>
     <t>步骤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)   Calculate ETX from location (when recieves a Hello packet)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -852,45 +835,7 @@
   <dxfs count="7">
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -914,6 +859,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -945,20 +891,59 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C19" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C19" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A1:C18"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="2" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="5">
+    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
       <totalsRowFormula>SUM(B2:B18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="4">
+    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
       <totalsRowFormula>TODAY()+8</totalsRowFormula>
     </tableColumn>
@@ -1254,62 +1239,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="102.625" customWidth="1"/>
+    <col min="1" max="1" width="75.75" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="20.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="9">
         <f ca="1">TODAY()</f>
-        <v>39523</v>
+        <v>39524</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="9">
         <f ca="1">TODAY()+1</f>
-        <v>39524</v>
+        <v>39525</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75">
@@ -1326,7 +1311,7 @@
     </row>
     <row r="8" spans="1:3" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
@@ -1340,12 +1325,12 @@
       </c>
       <c r="C9" s="9">
         <f ca="1">TODAY()+2</f>
-        <v>39525</v>
+        <v>39526</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
@@ -1359,7 +1344,7 @@
       </c>
       <c r="C11" s="10">
         <f ca="1">TODAY()+3</f>
-        <v>39526</v>
+        <v>39527</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75">
@@ -1369,71 +1354,71 @@
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="37.5">
+    <row r="13" spans="1:3" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
       </c>
       <c r="C14" s="9">
         <f ca="1">TODAY()+5</f>
-        <v>39528</v>
+        <v>39529</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="11">
         <f ca="1">TODAY()+6</f>
-        <v>39529</v>
+        <v>39530</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="9">
         <f ca="1">TODAY()+7</f>
-        <v>39530</v>
+        <v>39531</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="11">
         <f ca="1">TODAY()+8</f>
-        <v>39531</v>
+        <v>39532</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="8">
         <f>SUM(B2:B18)</f>
@@ -1441,13 +1426,16 @@
       </c>
       <c r="C19" s="12">
         <f ca="1">TODAY()+8</f>
-        <v>39531</v>
+        <v>39532</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;12OPSP simulation schedul</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/DOC/schedule.xlsx
+++ b/DOC/schedule.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -25,61 +25,20 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="10"/>
+            <color indexed="18"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">struct glomo_coordinates_str {
+          <t>struct glomo_coordinates_str {
     double x;
     double y;
     double z;
 };
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>当收到</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>rrep</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>包时，接收端计算发送端到接收端的距离，并根据距离做计算得出</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ETX
- distance= sqrt(SQUARE(rxNode-&gt;position.x - propInfo-&gt;txPosition.x) +SQUARE(rxNode-&gt;position.y - propInfo-&gt;txPosition.y))
+当收到HELLO和RREP包时，接收端计算发送端到接收端的距离，并根据距离做计算得出ETX。
+distance= sqrt(SQUARE(rxNode-&gt;position.x - propInfo-&gt;txPosition.x) +SQUARE(rxNode-&gt;position.y - propInfo-&gt;txPosition.y))
 ETX = distance * ETX_CONEFFICENT</t>
         </r>
       </text>
@@ -670,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,21 +691,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -758,6 +702,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -804,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -844,6 +796,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -860,6 +816,44 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -884,48 +878,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -939,11 +891,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C19" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A1:C18"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(B2:B18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0">
+    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
       <totalsRowFormula>TODAY()+8</totalsRowFormula>
     </tableColumn>
@@ -1239,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1354,7 +1306,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75">
+    <row r="13" spans="1:3" ht="37.5">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>

--- a/DOC/schedule.xlsx
+++ b/DOC/schedule.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -26,20 +26,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="18"/>
+            <color indexed="8"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
-          <t>struct glomo_coordinates_str {
+          <t xml:space="preserve">struct glomo_coordinates_str {
     double x;
     double y;
     double z;
 };
-当收到HELLO和RREP包时，接收端计算发送端到接收端的距离，并根据距离做计算得出ETX。
+当收到HELLO和RREP包时，接收端计算发送端到接收端的距离，并根据距离做计算得出ETX，并更新邻居表里的etx值。
 distance= sqrt(SQUARE(rxNode-&gt;position.x - propInfo-&gt;txPosition.x) +SQUARE(rxNode-&gt;position.y - propInfo-&gt;txPosition.y))
-ETX = distance * ETX_CONEFFICENT</t>
+ETX = distance * ETX_CONEFFICENT
+</t>
         </r>
       </text>
     </comment>
@@ -705,7 +706,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="18"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -796,10 +797,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -816,44 +813,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -878,6 +837,48 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -891,11 +892,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C19" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A1:C18"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
       <totalsRowFormula>SUM(B2:B18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
       <totalsRowFormula>TODAY()+8</totalsRowFormula>
     </tableColumn>
@@ -1191,13 +1192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="75.75" customWidth="1"/>
+    <col min="1" max="1" width="55.25" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>

--- a/DOC/schedule.xlsx
+++ b/DOC/schedule.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -37,8 +37,9 @@
     double y;
     double z;
 };
-当收到HELLO和RREP包时，接收端计算发送端到接收端的距离，并根据距离做计算得出ETX，并更新邻居表里的etx值。
-distance= sqrt(SQUARE(rxNode-&gt;position.x - propInfo-&gt;txPosition.x) +SQUARE(rxNode-&gt;position.y - propInfo-&gt;txPosition.y))
+把节点位置信息加入RREP包和HELLO包（两种包是用的同一个结构）中，发送时加入节点自身位置。
+当收到HELLO时，接收端计算发送端到接收端的距离，并根据距离做计算得出ETX，并更新邻居表里的etx值。
+distance= sqrt(SQUARE(rxNode-&gt;position.x - propInfo-&gt;txPosition.x) + SQUARE(rxNode-&gt;position.y - propInfo-&gt;txPosition.y))
 ETX = distance * ETX_CONEFFICENT
 </t>
         </r>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <r>
       <t>2.</t>
@@ -243,6 +244,45 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sort candidates in CS</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>a)</t>
     </r>
     <r>
@@ -261,7 +301,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Two-hop ETX values table (TEVT)</t>
+      <t>Delay</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -300,8 +340,135 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>one-hop neighbors’ delivery rate table (NDRT)</t>
-    </r>
+      <t xml:space="preserve">Decided to forwarding or discarding </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> add ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>j-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , get ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (one-hop neighbors’ delivery rate table)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     c)   add ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i-D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>to RREP</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -321,6 +488,49 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>a)   Calculate ETX from location (when recieves a Hello packet)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>a)</t>
     </r>
     <r>
@@ -335,6 +545,93 @@
     <r>
       <rPr>
         <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Two-hop Neighbors' ETX  table (TNET)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ne-hop Neighbors’ Delivery Rate Table (ONDRT)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -348,280 +645,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>, select candidate for NDRT to add them into candidate set (CS)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>sort candidates in CS</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delay</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Decided to forwarding or discarding </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> add ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>j-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , get ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (one-hop neighbors’ delivery rate table)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     c)   add ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">i-D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>to RREP</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)   Calculate ETX from location (when recieves a Hello packet)</t>
+      <t>, select candidate for ONDRT to add them into Candidate Set (CS)</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -785,7 +809,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -845,8 +869,30 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -880,26 +926,25 @@
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C19" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="A1:C18"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D19" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:D18">
+    <filterColumn colId="2"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
       <totalsRowFormula>SUM(B2:B18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="完成时间" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0">
-      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    <tableColumn id="4" name="计划完成时间" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0">
       <totalsRowFormula>TODAY()+8</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="3" name="完成情况" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1190,86 +1235,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="55.25" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="90" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.75">
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.25">
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="9">
         <f ca="1">TODAY()</f>
-        <v>39524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.25">
+        <v>39525</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="9">
         <f ca="1">TODAY()+1</f>
-        <v>39525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75">
+        <v>39526</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.75">
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75">
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75">
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1278,17 +1349,23 @@
       </c>
       <c r="C9" s="9">
         <f ca="1">TODAY()+2</f>
-        <v>39526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75">
+        <v>39527</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="20.25">
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1297,81 +1374,105 @@
       </c>
       <c r="C11" s="10">
         <f ca="1">TODAY()+3</f>
-        <v>39527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75">
+        <v>39528</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" ht="37.5">
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75">
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
       </c>
       <c r="C14" s="9">
         <f ca="1">TODAY()+5</f>
-        <v>39529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75">
+        <v>39530</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="11">
         <f ca="1">TODAY()+6</f>
-        <v>39530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75">
+        <v>39531</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75">
+      <c r="D16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="9">
         <f ca="1">TODAY()+7</f>
-        <v>39531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75">
+        <v>39532</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="11">
         <f ca="1">TODAY()+8</f>
-        <v>39532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.25" customHeight="1">
+        <v>39533</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8">
         <f>SUM(B2:B18)</f>
@@ -1379,15 +1480,23 @@
       </c>
       <c r="C19" s="12">
         <f ca="1">TODAY()+8</f>
-        <v>39532</v>
+        <v>39533</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
+      <formula1>$I$6:$I$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;12OPSP simulation schedul</oddHeader>
+    <oddHeader>&amp;C&amp;12&amp;T</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
@@ -1413,7 +1522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3825" topLeftCell="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/DOC/schedule.xlsx
+++ b/DOC/schedule.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -45,12 +45,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在下面的函数中加入对</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>etx</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>值的处理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RoutingAodvRelayRREP
+RoutingAodvInitiateRREPbyIN
+RoutingAodvInitiateRREP
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <r>
       <t>2.</t>
@@ -493,160 +538,171 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Two-hop Neighbors' ETX  table (TNET)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ne-hop Neighbors’ Delivery Rate Table (ONDRT)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>when a packet arrives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, select candidate for ONDRT to add them into Candidate Set (CS)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>SUM</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>计划完成时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Two-hop Neighbors' ETX  table (TNET)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ne-hop Neighbors’ Delivery Rate Table (ONDRT)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>when a packet arrives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, select candidate for ONDRT to add them into Candidate Set (CS)</t>
-    </r>
+    <t>2008-3-26</t>
+  </si>
+  <si>
+    <t>在各种拓扑结构下OR的效率，哪种拓扑更适合OR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     d)   add etx into Nbr and routing table</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,8 +792,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +829,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,9 +866,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,9 +873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -802,8 +884,17 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +902,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -869,9 +960,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -926,25 +1014,23 @@
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D19" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:D18">
-    <filterColumn colId="2"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D19" totalsRowCount="1" headerRowDxfId="7">
   <tableColumns count="4">
-    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
+    <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <totalsRowFormula>SUM(B2:B18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="计划完成时间" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0">
-      <totalsRowFormula>TODAY()+8</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="完成情况" dataDxfId="4"/>
+    <tableColumn id="4" name="计划完成时间" totalsRowLabel="2008-3-26" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="3" name="完成情况" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1235,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1251,236 +1337,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>19</v>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9">
-        <f ca="1">TODAY()</f>
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7">
         <v>39525</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <f ca="1">TODAY()+1</f>
+      <c r="C5" s="7">
         <v>39526</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
-        <f ca="1">TODAY()+2</f>
+      <c r="C9" s="7">
         <v>39527</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
-        <f ca="1">TODAY()+3</f>
+      <c r="C11" s="8">
         <v>39528</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>19</v>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
-        <f ca="1">TODAY()+5</f>
-        <v>39530</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>19</v>
+      <c r="C14" s="7">
+        <v>39529</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
-        <f ca="1">TODAY()+6</f>
-        <v>39531</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>19</v>
+      <c r="C15" s="9">
+        <v>39530</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>19</v>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="9">
-        <f ca="1">TODAY()+7</f>
-        <v>39532</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>19</v>
+      <c r="C17" s="7">
+        <v>39531</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="11">
-        <f ca="1">TODAY()+8</f>
-        <v>39533</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>19</v>
+      <c r="C18" s="9">
+        <v>39532</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11">
         <f>SUM(B2:B18)</f>
         <v>8</v>
       </c>
-      <c r="C19" s="12">
-        <f ca="1">TODAY()+8</f>
-        <v>39533</v>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
